--- a/data/income_statement/2digits/size/58_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/58_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>58-Publishing activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>58-Publishing activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,665 +841,750 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>581584.48325</v>
+        <v>609297.50026</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>684130.8172200001</v>
+        <v>621958.19209</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>821601.9487899999</v>
+        <v>785649.6453300001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>938192.15151</v>
+        <v>959478.41842</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1073288.76665</v>
+        <v>1079906.98968</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1335966.18217</v>
+        <v>1434033.64662</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1378572.59054</v>
+        <v>1477484.27781</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1767320.52908</v>
+        <v>1926496.83158</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>2192536.71431</v>
+        <v>2451548.56883</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2778282.65596</v>
+        <v>2605417.14879</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>3937096.62241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3956738.23036</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>4049739.786</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>561327.6655799999</v>
+        <v>590056.55588</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>663951.2265300001</v>
+        <v>602272.9283200001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>789235.02962</v>
+        <v>755504.9904599999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>890496.5994899999</v>
+        <v>911001.85413</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1016041.32609</v>
+        <v>1024083.18022</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1267249.81126</v>
+        <v>1365285.39331</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1267091.81947</v>
+        <v>1360695.76127</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1569875.12933</v>
+        <v>1728708.83409</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>2037574.00181</v>
+        <v>2293169.28066</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2685640.51969</v>
+        <v>2526493.54242</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>3669986.78673</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3695031.13542</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>3803415.458</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>11268.08976</v>
+        <v>11261.30185</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>10503.24296</v>
+        <v>10484.63719</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>15761.67918</v>
+        <v>15225.34026</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>31330.46387</v>
+        <v>31102.26962</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>42683.01535</v>
+        <v>42619.71864</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>46998.46123</v>
+        <v>46998.06123000001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>90614.21455</v>
+        <v>87516.17593</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>169925.84518</v>
+        <v>166580.97865</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>122442.81362</v>
+        <v>121268.30044</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>48515.69747</v>
+        <v>39381.62258</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>222686.28194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>216831.72673</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>204362.856</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>8988.72791</v>
+        <v>7979.64253</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>9676.347729999998</v>
+        <v>9200.62658</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>16605.23999</v>
+        <v>14919.31461</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>16365.08815</v>
+        <v>17374.29467</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>14564.42521</v>
+        <v>13204.09082</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>21717.90968</v>
+        <v>21750.19208</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>20866.55652</v>
+        <v>29272.34061</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>27519.55457</v>
+        <v>31207.01884</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>32519.89888</v>
+        <v>37110.98772999999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>44126.4388</v>
+        <v>39541.98379</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>44423.55374</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>44875.36821</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>41961.472</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>108284.68195</v>
+        <v>103257.46277</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>122287.2608</v>
+        <v>102910.25714</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>138870.14442</v>
+        <v>135230.19403</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>149762.39757</v>
+        <v>152407.10013</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>181511.33323</v>
+        <v>162013.87718</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>197235.05362</v>
+        <v>232938.11003</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>235370.10772</v>
+        <v>250931.3703</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>289724.09958</v>
+        <v>312123.7305</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>424096.28378</v>
+        <v>485648.686</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>464541.47285</v>
+        <v>409162.55628</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>575984.2364200001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>564504.3169</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>607722.782</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>80911.88699</v>
+        <v>78916.17272999999</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>89267.28586</v>
+        <v>73104.69140000001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>100959.9176</v>
+        <v>99285.57429999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>99510.20757</v>
+        <v>105829.29737</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>127528.80118</v>
+        <v>119315.19077</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>133337.19962</v>
+        <v>170080.09667</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>140874.3321</v>
+        <v>155327.14283</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>191023.76114</v>
+        <v>211969.7874</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>224213.64582</v>
+        <v>263964.91348</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>307271.05045</v>
+        <v>288320.62763</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>374463.1424</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>365938.57622</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>352382.89</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>25616.05266</v>
+        <v>22591.54774</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>31675.83112</v>
+        <v>28461.42192</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>35174.89392</v>
+        <v>33210.18826</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>45750.1807</v>
+        <v>42078.21114</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>51970.54266000001</v>
+        <v>40901.54408</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>61703.26671</v>
+        <v>60663.42607</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>92589.18995999999</v>
+        <v>93708.58276999999</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>94662.54692000001</v>
+        <v>95512.98233</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>195035.39179</v>
+        <v>216857.48591</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>154323.61741</v>
+        <v>119088.30806</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>194831.15996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>192213.3296</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>249893.312</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>1756.7423</v>
+        <v>1749.7423</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>1344.14382</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>2735.3329</v>
+        <v>2734.43147</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>4502.0093</v>
+        <v>4499.59162</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>2011.98939</v>
+        <v>1797.14233</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>2194.58729</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1906.58566</v>
+        <v>1895.6447</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>4037.79152</v>
+        <v>4640.96077</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>4847.24617</v>
+        <v>4826.28661</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>2946.80499</v>
+        <v>1753.62059</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>6689.93406</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>6352.41108</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>5446.58</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>473299.8013</v>
+        <v>506040.03749</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>561843.55642</v>
+        <v>519047.93495</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>682731.80437</v>
+        <v>650419.4513</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>788429.7539400001</v>
+        <v>807071.31829</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>891777.4334200001</v>
+        <v>917893.1125</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1138731.12855</v>
+        <v>1201095.53659</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1143202.48282</v>
+        <v>1226552.90751</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1477596.4295</v>
+        <v>1614373.10108</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1768440.43053</v>
+        <v>1965899.88283</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2313741.18311</v>
+        <v>2196254.59251</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>3361112.38599</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>3392233.91346</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>3442017.004</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>339383.92664</v>
+        <v>366113.58224</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>390478.7459099999</v>
+        <v>367640.91095</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>483312.30686</v>
+        <v>465376.23289</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>539235.19875</v>
+        <v>557150.98202</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>577781.68388</v>
+        <v>590005.2755099999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>769360.0224000001</v>
+        <v>835321.49952</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>795153.8725899999</v>
+        <v>835408.74725</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1046775.77511</v>
+        <v>1148586.5838</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>1267862.07692</v>
+        <v>1421252.80015</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1568730.05167</v>
+        <v>1491985.86264</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2195387.83017</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2159795.66096</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2168451.112</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>170748.61228</v>
+        <v>199471.50411</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>235811.43286</v>
+        <v>227780.30629</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>330237.06715</v>
+        <v>318980.11488</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>284830.51325</v>
+        <v>305438.54485</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>329901.82054</v>
+        <v>337105.16861</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>369644.3441</v>
+        <v>415578.0850899999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>350732.70357</v>
+        <v>391898.09076</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>476775.90677</v>
+        <v>529059.77272</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>525207.12866</v>
+        <v>597791.07414</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>766032.04811</v>
+        <v>715887.21468</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1017208.16814</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>978584.14905</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>941465.187</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>100777.24978</v>
+        <v>100799.58444</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>96920.36246</v>
+        <v>86492.60228000001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>107136.50182</v>
+        <v>101111.93338</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>157419.22053</v>
+        <v>149544.38979</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>123581.07655</v>
+        <v>115339.52992</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>253838.43784</v>
+        <v>254030.6821</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>251518.43983</v>
+        <v>256578.70361</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>311684.039</v>
+        <v>354103.7593099999</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>551712.97529</v>
+        <v>640704.0685000001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>473979.1450499999</v>
+        <v>452656.76489</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>604885.75771</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>625141.17498</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>815791.757</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>65440.91928</v>
+        <v>63151.64258</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>57456.45545</v>
+        <v>53078.18821</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>39920.10054</v>
+        <v>39272.68541</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>95342.87365000001</v>
+        <v>95252.86919</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>110158.15551</v>
+        <v>122611.87129</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>133029.67927</v>
+        <v>146660.40838</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>187223.86719</v>
+        <v>176518.88207</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>253285.94566</v>
+        <v>259884.62804</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>177883.56497</v>
+        <v>168872.42845</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>313572.78504</v>
+        <v>309233.43012</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>553237.5485800001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>536365.88809</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>409337.491</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>2417.1453</v>
+        <v>2690.85111</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>290.49514</v>
+        <v>289.81417</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>6018.63735</v>
+        <v>6011.49922</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1642.59132</v>
+        <v>6915.178190000001</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>14140.63128</v>
+        <v>14948.70569</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>12847.56119</v>
+        <v>19052.32395</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>5678.862</v>
+        <v>10413.07081</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>5029.88368</v>
+        <v>5538.42373</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>13058.408</v>
+        <v>13885.22906</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>15146.07347</v>
+        <v>14208.45295</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>20056.35574</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>19704.44884</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1856.677</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>133915.87466</v>
+        <v>139926.45525</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>171364.81051</v>
+        <v>151407.024</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>199419.49751</v>
+        <v>185043.21841</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>249194.55519</v>
+        <v>249920.33627</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>313995.74954</v>
+        <v>327887.83699</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>369371.1061499999</v>
+        <v>365774.03707</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>348048.61023</v>
+        <v>391144.16026</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>430820.65439</v>
+        <v>465786.51728</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>500578.35361</v>
+        <v>544647.08268</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>745011.13144</v>
+        <v>704268.72987</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1165724.55582</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1232438.2525</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1273565.892</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>123620.07899</v>
+        <v>130348.79326</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>161057.24552</v>
+        <v>139746.14142</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>200184.75527</v>
+        <v>183361.7699</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>215744.60865</v>
+        <v>213949.05233</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>263821.88573</v>
+        <v>270828.6956</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>288813.27112</v>
+        <v>296944.0397</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>261194.79621</v>
+        <v>278095.4923</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>319912.98176</v>
+        <v>348746.73417</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>396384.82926</v>
+        <v>439415.27089</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>582652.7072599999</v>
+        <v>547474.08452</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>806510.1027200001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>797160.2244500001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>888682.072</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>3016.84902</v>
+        <v>1712.21609</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>2195.69308</v>
+        <v>726.2266699999999</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1298.64082</v>
+        <v>1245.88303</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1008.35363</v>
+        <v>949.05986</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1319.00131</v>
+        <v>1323.94587</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>88.91376000000001</v>
+        <v>102.93546</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>87.423</v>
+        <v>40.83647</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>152.14184</v>
+        <v>99.76139999999999</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>460.8997900000001</v>
+        <v>0.33334</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>5713.85792</v>
@@ -1606,188 +1592,213 @@
       <c r="M21" s="48" t="n">
         <v>7626.180230000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>7951.556</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>60556.43743</v>
+        <v>64423.66233</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>85049.12806</v>
+        <v>74852.17443000001</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>102517.07947</v>
+        <v>98777.34297</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>93367.7098</v>
+        <v>93213.20565999999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>126776.22858</v>
+        <v>133032.44403</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>122807.41997</v>
+        <v>134584.3571</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>117930.59765</v>
+        <v>131703.90703</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>139192.19818</v>
+        <v>164773.87205</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>169576.81745</v>
+        <v>194092.17956</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>286467.8219</v>
+        <v>268233.82248</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>376024.58101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>387265.14283</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>439094.857</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>60046.79254</v>
+        <v>64212.91484</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>73812.42438</v>
+        <v>64167.74032</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>96369.03498000001</v>
+        <v>83338.5439</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>121368.54522</v>
+        <v>119786.78681</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>135726.65584</v>
+        <v>136472.3057</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>165916.93739</v>
+        <v>162256.74714</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>143176.77556</v>
+        <v>146350.7488</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>180568.64174</v>
+        <v>183873.10072</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>226347.11202</v>
+        <v>245322.75799</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>290471.02744</v>
+        <v>273526.40412</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>422859.34148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>402268.90139</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>441635.659</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>10295.79567</v>
+        <v>9577.661990000001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>10307.56499</v>
+        <v>11660.88258</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-765.2577599999997</v>
+        <v>1681.44851</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>33449.94654</v>
+        <v>35971.28394000001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>50173.86381</v>
+        <v>57059.14139</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>80557.83503</v>
+        <v>68829.99737000001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>86853.81402000001</v>
+        <v>113048.66796</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>110907.67263</v>
+        <v>117039.78311</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>104193.52435</v>
+        <v>105231.81179</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>162358.42418</v>
+        <v>156794.64535</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>359214.4531</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>435278.02805</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>384883.82</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>14944.1626</v>
+        <v>16074.82956</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>16703.01046</v>
+        <v>12283.188</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>14948.21943</v>
+        <v>14485.62578</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>14619.73836</v>
+        <v>18101.07585</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>24163.13972</v>
+        <v>20498.78485</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>20434.56854</v>
+        <v>20361.90174</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>32181.51487</v>
+        <v>25120.31891</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>26040.37471</v>
+        <v>23393.58835</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>21898.13117</v>
+        <v>27129.50464</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>230242.75481</v>
+        <v>193430.56533</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>136814.90561</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>126818.95628</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>223157.707</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>34.76596</v>
+        <v>35.47116</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>54.29522</v>
+        <v>54.08393</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>61.80267</v>
+        <v>523.22489</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>75.68992999999999</v>
+        <v>681.09399</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>577.03515</v>
+        <v>44.68001</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>590.96799</v>
+        <v>42.52991</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>118.18724</v>
+        <v>74.91097000000001</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>151.24487</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>2045.93585</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>91.944</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1.23976</v>
@@ -1814,19 +1830,19 @@
         <v>1.75875</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>2.1348</v>
+        <v>0</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>0.45558</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>0.2</v>
+        <v>0.89252</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>567.60464</v>
+        <v>1041.27021</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>0</v>
@@ -1840,77 +1856,87 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>30.332</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>2970.04969</v>
+        <v>2936.13907</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>2289.47419</v>
+        <v>1507.07365</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>2748.79755</v>
+        <v>2852.43042</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>3879.502730000001</v>
+        <v>6293.635490000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>6724.82576</v>
+        <v>5640.13846</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>5986.46408</v>
+        <v>6892.296679999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>4173.6742</v>
+        <v>4126.45095</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>4222.125410000001</v>
+        <v>3977.1162</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>4317.3017</v>
+        <v>5870.474560000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>27728.59628</v>
+        <v>23330.52068</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>33215.01594</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>35410.72429999999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>29824.169</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>146.99975</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>39.98567</v>
+        <v>39.88327</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>22.01712</v>
+        <v>19.65854</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>58.30361</v>
+        <v>56.44709</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>168.2731</v>
+        <v>146.09457</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>229.79111</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>2549.3542</v>
+        <v>63.00077</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>7.51583</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>212.6673</v>
+        <v>60.125</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>7.01211</v>
@@ -1918,143 +1944,163 @@
       <c r="M29" s="48" t="n">
         <v>2.51802</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>1505.027</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1164.79608</v>
+        <v>1148.07684</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>3970.54699</v>
+        <v>3874.10382</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>2138.62765</v>
+        <v>2203.58624</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>1247.83891</v>
+        <v>1238.67425</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1928.1707</v>
+        <v>1845.36911</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1728.43891</v>
+        <v>1391.72933</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>3796.02433</v>
+        <v>2833.06863</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>985.6575600000001</v>
+        <v>1863.71935</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>1658.82381</v>
+        <v>2864.42673</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>24534.53674</v>
+        <v>5089.76332</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>27088.52228</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>6408.1578</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>11553.689</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>300.07187</v>
+        <v>287.25168</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>146.19223</v>
+        <v>101.12196</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>100.5153</v>
+        <v>73.07755999999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>100.52836</v>
+        <v>128.55438</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>98.77903999999999</v>
+        <v>91.53738</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>489.68841</v>
+        <v>102.53399</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>290.8537900000001</v>
+        <v>359.7728499999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>360.71506</v>
+        <v>310.79913</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>404.07184</v>
+        <v>227.56882</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>341.78471</v>
+        <v>340.4746</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1938.20779</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1938.27912</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>4429.116</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>4398.250309999999</v>
+        <v>5942.20818</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>4275.82682</v>
+        <v>1687.97963</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>4629.47725</v>
+        <v>4029.28249</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>3272.63841</v>
+        <v>3306.66778</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>8745.17626</v>
+        <v>8030.114140000001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>5519.92512</v>
+        <v>5701.01712</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>16404.64311</v>
+        <v>12820.19033</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>15019.14419</v>
+        <v>10810.5822</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>8983.669780000002</v>
+        <v>9911.724679999999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>161570.36086</v>
+        <v>149640.32666</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>58058.90625</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>63709.95039</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>153010.127</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>873.3689000000001</v>
+        <v>621.09458</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>577.78346</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>515.37046</v>
+        <v>490.49895</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>413.84617</v>
+        <v>347.7111</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>273.77281</v>
+        <v>69.19199999999999</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>1483.02939</v>
@@ -2063,22 +2109,27 @@
         <v>765.08533</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>93.92622999999999</v>
+        <v>1045.6129</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>324.14415</v>
+        <v>1019.29369</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>2170.58484</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>2208.68387</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>5793.67508</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>6595.676</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,173 +2164,198 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>5054.62028</v>
+        <v>4956.34854</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>5347.14713</v>
+        <v>4439.399530000001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>4729.47663</v>
+        <v>4293.866690000001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>5570.88742</v>
+        <v>6047.78895</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>5646.906899999999</v>
+        <v>4630.766659999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>4406.26353</v>
+        <v>4518.97421</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>3364.7371</v>
+        <v>2885.21794</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>5200.04556</v>
+        <v>5226.99787</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>5802.58837</v>
+        <v>6981.026940000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>13857.73202</v>
+        <v>12819.73587</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>12257.11561</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>11509.71572</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>16117.627</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>16860.64882</v>
+        <v>17117.04176</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>14780.59555</v>
+        <v>11764.27082</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>17358.27455</v>
+        <v>16632.28454</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>21520.58379</v>
+        <v>22193.94556</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>14120.55675</v>
+        <v>14390.5021</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>19597.14533</v>
+        <v>31838.13306</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>19494.13635</v>
+        <v>20109.18169</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>29700.11665</v>
+        <v>28392.48915</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>15107.02107</v>
+        <v>20870.85033</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>172169.86461</v>
+        <v>142014.76323</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>99642.9086</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>100461.70642</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>124923.652</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1347.28417</v>
+        <v>1080.34015</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1922.27291</v>
+        <v>1731.09607</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>2493.52468</v>
+        <v>2485.40824</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>2257.0368</v>
+        <v>2714.76742</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>2152.225</v>
+        <v>4248.70641</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>5180.77135</v>
+        <v>5796.84841</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>742.8914100000001</v>
+        <v>744.27088</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>5750.55251</v>
+        <v>5758.88003</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>614.38205</v>
+        <v>412.8499</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>253.69442</v>
+        <v>245.8625</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>344.05577</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>330.10452</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1704.687</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>9095.62349</v>
+        <v>9599.216839999999</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>6031.13314</v>
+        <v>5981.34538</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>7892.814219999999</v>
+        <v>7808.71045</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>13616.1287</v>
+        <v>13613.92234</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>4082.66464</v>
+        <v>3797.34948</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>5641.26117</v>
+        <v>5115.834690000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>3514.75571</v>
+        <v>3182.13028</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>9416.697279999998</v>
+        <v>8534.43154</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>2918.68697</v>
+        <v>5005.06054</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>44808.08114</v>
+        <v>25928.0267</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>37429.04338</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>39313.06207</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>16012.839</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>0.47317</v>
+        <v>0.00051</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>16.81584</v>
+        <v>0</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>0</v>
@@ -2288,10 +2364,10 @@
         <v>0</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>0</v>
+        <v>0.00123</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>22.66898</v>
+        <v>0</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>0</v>
@@ -2303,70 +2379,80 @@
         <v>0</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>26.07969</v>
+        <v>0</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>53.79831</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>12.507</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>4921.24121</v>
+        <v>4838.32711</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>4035.55504</v>
+        <v>1521.36032</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>5012.431189999999</v>
+        <v>4558.53929</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>3999.2201</v>
+        <v>4045.63225</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>6333.237700000001</v>
+        <v>4798.00379</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>6393.95252</v>
+        <v>18453.88336</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>14124.32752</v>
+        <v>15129.45443</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>13732.27415</v>
+        <v>12294.83672</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>9328.76778</v>
+        <v>12066.41217</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>122652.58088</v>
+        <v>111460.65117</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>55216.07919</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>53970.20651999999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>97268.901</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>410.1472</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>640.88852</v>
+        <v>616.01701</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>469.80887</v>
+        <v>403.6738</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>429.68256</v>
+        <v>362.23511</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>353.11024</v>
+        <v>230.81461</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>1590.12717</v>
@@ -2375,22 +2461,27 @@
         <v>746.8114300000001</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>149.19373</v>
+        <v>980.66039</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>490.11804</v>
+        <v>1345.64453</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>2038.12538</v>
+        <v>2037.63912</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>2650.76897</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>6235.760179999999</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>8337.897000000001</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,155 +2516,175 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1085.87958</v>
+        <v>1189.00995</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2133.9301</v>
+        <v>1914.45204</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1489.69559</v>
+        <v>1375.95276</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1218.51563</v>
+        <v>1457.38844</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1199.31917</v>
+        <v>1315.62658</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>768.36414</v>
+        <v>881.43943</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>365.3502800000001</v>
+        <v>306.51467</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>651.3989799999999</v>
+        <v>823.68047</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1755.06623</v>
+        <v>2040.88319</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>2391.3031</v>
+        <v>2342.58374</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>3949.16298</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>558.77482</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1586.821</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>13121.70845</v>
+        <v>10883.9975</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>14193.54727</v>
+        <v>11485.52681</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>17728.68218</v>
+        <v>16040.39869</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>22091.20289</v>
+        <v>20758.66389</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>19246.87746</v>
+        <v>16429.96866</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>21615.11924</v>
+        <v>19659.49947</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>17935.81954</v>
+        <v>18779.75917</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>22513.95296</v>
+        <v>27342.24536</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>31126.09657</v>
+        <v>40809.83398</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>94809.69385</v>
+        <v>69339.83540000001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>144571.32166</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>129931.0282</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>77499.476</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>10987.70378</v>
+        <v>10495.53807</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>12149.86408</v>
+        <v>10941.13878</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>17400.43352</v>
+        <v>15786.96127</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>21882.89638</v>
+        <v>20625.01165</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>18146.23867</v>
+        <v>16136.7633</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>20649.4598</v>
+        <v>19411.71875</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>17390.71389</v>
+        <v>18292.895</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>21352.49555</v>
+        <v>26209.38574</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>30905.73082</v>
+        <v>38836.36669</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>89299.83359000001</v>
+        <v>63829.97514</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>139341.55208</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>124701.25862</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>73733.876</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>2134.00467</v>
+        <v>388.45943</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>2043.68319</v>
+        <v>544.3880300000001</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>328.24866</v>
+        <v>253.43742</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>208.30651</v>
+        <v>133.65224</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>1100.63879</v>
+        <v>293.20536</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>965.65944</v>
+        <v>247.78072</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>545.10565</v>
+        <v>486.86417</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1161.45741</v>
+        <v>1132.85962</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>220.36575</v>
+        <v>1973.46729</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>5509.860259999999</v>
@@ -2581,89 +2692,104 @@
       <c r="M46" s="48" t="n">
         <v>5229.76958</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>3765.6</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-4742.399</v>
+        <v>-2348.54771</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-1963.567369999999</v>
+        <v>694.2729499999992</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-20903.99506</v>
+        <v>-16505.60894</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>4457.898219999999</v>
+        <v>11119.75034</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>40969.56932</v>
+        <v>46737.45548</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>59780.139</v>
+        <v>37694.26658</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>81605.37300000001</v>
+        <v>99280.04601000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>84733.97773</v>
+        <v>84698.63695</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>79858.53787999999</v>
+        <v>70680.63212000001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>125621.62053</v>
+        <v>138870.61205</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>251815.12845</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>331704.24971</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>405618.399</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>3037.15999</v>
+        <v>1713.17516</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>3370.62472</v>
+        <v>2904.21717</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>12564.48909</v>
+        <v>15284.46368</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>6678.35895</v>
+        <v>6251.97061</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>13642.80472</v>
+        <v>2177.66095</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>15747.57493</v>
+        <v>15648.52014</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>23524.21484</v>
+        <v>8346.61484</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>13677.36887</v>
+        <v>14266.80804</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>4897.02168</v>
+        <v>7801.342869999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>7927.783619999999</v>
+        <v>8488.460280000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>18227.32742</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>14820.31492</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>57613.06</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>33.92376</v>
@@ -2675,10 +2801,10 @@
         <v>5.89628</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>454.1991599999999</v>
+        <v>1.12086</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>22.39584</v>
+        <v>12.39048</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>15.92382</v>
@@ -2687,7 +2813,7 @@
         <v>24.1412</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>19.97537</v>
+        <v>16.11107</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>74.80494999999999</v>
@@ -2698,107 +2824,122 @@
       <c r="M49" s="48" t="n">
         <v>275.92397</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>725.1609999999999</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>3003.23623</v>
+        <v>1679.2514</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>3356.45649</v>
+        <v>2890.04894</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>12558.59281</v>
+        <v>15278.5674</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>6224.15979</v>
+        <v>6250.84975</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>13620.40888</v>
+        <v>2165.27047</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>15731.65111</v>
+        <v>15632.59632</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>23500.07364</v>
+        <v>8322.47364</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>13657.3935</v>
+        <v>14250.69697</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>4822.21673</v>
+        <v>7726.53792</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>7863.80308</v>
+        <v>8424.479740000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>17951.40345</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>14544.39095</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>56887.899</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>5272.105479999999</v>
+        <v>5382.891820000001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>3083.35304</v>
+        <v>2465.06658</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>29713.56947</v>
+        <v>24771.76452</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>5093.94886</v>
+        <v>5172.36908</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>6920.483810000001</v>
+        <v>8322.373439999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>12567.65039</v>
+        <v>14341.01644</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>6755.2781</v>
+        <v>5797.98467</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>27238.04125</v>
+        <v>20847.84681</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>9738.25496</v>
+        <v>13190.07569</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>33307.06596</v>
+        <v>27455.77081</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>33047.13853</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>25128.1649</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>36174.396</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>0</v>
+        <v>401.69808</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>292.03837</v>
+        <v>290.33837</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>3.1</v>
+        <v>50.85</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>3.48</v>
+        <v>1503.16973</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>4.26049</v>
+        <v>719.5438800000001</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>4.37</v>
@@ -2807,7 +2948,7 @@
         <v>76.51761</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>349.59</v>
+        <v>361.32905</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>1460.93262</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>635.14264</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>430.822</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>624.08119</v>
+        <v>624.0706899999999</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>572.15529</v>
+        <v>366.09094</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>84.08112999999999</v>
+        <v>57.62900999999999</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>95.6996</v>
+        <v>71.52102000000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>104.44843</v>
+        <v>36.60954</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>169.48172</v>
+        <v>19.87007</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>255.31506</v>
+        <v>753.96172</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>44.05036</v>
+        <v>118.23912</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>214.20291</v>
+        <v>208.87042</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1516.83496</v>
+        <v>1482.68778</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>2962.33091</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2950.16998</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>524.6849999999999</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>4648.02429</v>
+        <v>4357.12305</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>2296.19775</v>
+        <v>2098.97564</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>29337.44997</v>
+        <v>24423.79714</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>4995.14926</v>
+        <v>5049.998060000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>6812.55538</v>
+        <v>6782.59417</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>12393.90818</v>
+        <v>13601.60249</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>6495.59304</v>
+        <v>5039.652950000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>27117.47328</v>
+        <v>20653.09008</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>9174.46205</v>
+        <v>12619.87622</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>30329.29838</v>
+        <v>24512.15040999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>29449.66498</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>21542.85228</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>35218.889</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-6977.34449</v>
+        <v>-6018.26437</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-1676.295689999999</v>
+        <v>1133.423539999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-38053.07544000001</v>
+        <v>-25992.90978</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>6042.30831</v>
+        <v>12199.35187</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>47691.89023</v>
+        <v>40592.74298999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>62960.06354</v>
+        <v>39001.77028</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>98374.30974000001</v>
+        <v>101828.67618</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>71173.30535</v>
+        <v>78117.59818</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>75017.30459999999</v>
+        <v>65291.8993</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>100242.33819</v>
+        <v>119903.30152</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>236995.31734</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>321396.39973</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>427057.063</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>6905.20307</v>
+        <v>7459.658069999999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>8316.893889999999</v>
+        <v>7755.40503</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>8701.71514</v>
+        <v>8978.223099999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>9719.5095</v>
+        <v>12278.0256</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>12779.65454</v>
+        <v>15790.65319</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>16921.92206</v>
+        <v>17544.01566</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>19047.12132</v>
+        <v>22521.73226</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>26492.49673</v>
+        <v>26000.72857</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>18811.91926</v>
+        <v>22040.76422</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>44861.32248999999</v>
+        <v>43969.21098999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>74308.86321</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>93305.12200999999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>96608.583</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-13882.54756</v>
+        <v>-13477.92244</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-9993.18958</v>
+        <v>-6621.98149</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-46754.79058</v>
+        <v>-34971.13288</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-3677.201189999999</v>
+        <v>-78.67373000000045</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>34912.23568999999</v>
+        <v>24802.0898</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>46038.14148</v>
+        <v>21457.75462</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>79327.18842000001</v>
+        <v>79306.94392000001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>44680.80862</v>
+        <v>52116.86961</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>56205.38534</v>
+        <v>43251.13508</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>55381.0157</v>
+        <v>75934.09053</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>162686.45413</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>228091.27772</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>330448.48</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
+      </c>
+      <c r="C59" s="35" t="n">
+        <v>52</v>
+      </c>
+      <c r="D59" s="35" t="n">
+        <v>53</v>
+      </c>
+      <c r="E59" s="35" t="n">
         <v>55</v>
       </c>
-      <c r="C59" s="35" t="n">
-        <v>69</v>
-      </c>
-      <c r="D59" s="35" t="n">
-        <v>76</v>
-      </c>
-      <c r="E59" s="35" t="n">
-        <v>75</v>
-      </c>
       <c r="F59" s="35" t="n">
+        <v>72</v>
+      </c>
+      <c r="G59" s="35" t="n">
+        <v>60</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>78</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>78</v>
+      </c>
+      <c r="J59" s="35" t="n">
+        <v>85</v>
+      </c>
+      <c r="K59" s="35" t="n">
         <v>92</v>
       </c>
-      <c r="G59" s="35" t="n">
+      <c r="L59" s="35" t="n">
+        <v>66</v>
+      </c>
+      <c r="M59" s="35" t="n">
         <v>81</v>
       </c>
-      <c r="H59" s="35" t="n">
-        <v>87</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>88</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>101</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>110</v>
-      </c>
-      <c r="L59" s="35" t="n">
-        <v>81</v>
-      </c>
-      <c r="M59" s="35" t="n">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" s="35" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>